--- a/examples/dotnet/crmit/src/crmit.code.gen/Data/ci.code.gen_CrmIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/crmit/src/crmit.code.gen/Data/ci.code.gen_CrmIt_0001_1001_1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa\sourcedynamo\examples\dotnet\crmit\src\crmit.code.gen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/crmit/src/crmit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FEBEA1-815A-4594-AA27-2F543CABD5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4187FCD-2381-5C4E-A0BB-AAB841E45551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>SystemCode</t>
   </si>
@@ -139,37 +139,49 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Physical Address</t>
-  </si>
-  <si>
-    <t>PhysicalAddress</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>CompanyRegistrationNumber</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Company Registration Number</t>
-  </si>
-  <si>
     <t>C3C309E2-0358-465A-8ABE-E3185810D1AA</t>
   </si>
   <si>
-    <t>ClientBusinessNumber</t>
-  </si>
-  <si>
     <t>6B605F60-DB78-43B6-9E10-0720BEA62F25</t>
   </si>
   <si>
-    <t>Client Business Number</t>
+    <t>CA4FD4B2-D59E-46DA-99DD-40E98D7C2AF7</t>
+  </si>
+  <si>
+    <t>D51C0A11-E6EC-44C8-B161-699D70B423B8</t>
+  </si>
+  <si>
+    <t>0643DD37-B69B-479A-920C-37043E6F58AA</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>PropertyDisplayName</t>
+  </si>
+  <si>
+    <t>Physical_Address</t>
+  </si>
+  <si>
+    <t>Company_Registration_Number</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Email_Address</t>
+  </si>
+  <si>
+    <t>Phone_Number</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -276,26 +288,31 @@
     <tableColumn id="1" xr3:uid="{4CE40CA5-4089-3B4C-9F08-43CA4E78D054}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{43FB4C35-03E1-BE45-BEE7-55A8F1DFA246}" name="ModelCode"/>
     <tableColumn id="3" xr3:uid="{3373CDEC-03EF-3D49-963E-CD54A53A99CB}" name="DisplayName"/>
-    <tableColumn id="4" xr3:uid="{61C4255E-E86C-7546-AD9C-F2F09B7F9D01}" name="MultipleDisplayName" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{61C4255E-E86C-7546-AD9C-F2F09B7F9D01}" name="MultipleDisplayName" dataDxfId="5">
       <calculatedColumnFormula>C2 &amp; "s"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{BC633840-3E4F-354E-B2AC-B11656C97753}" name="DisplayOrder"/>
-    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasPage" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasPage" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}" name="Table3" displayName="Table3" ref="A1:H30" totalsRowShown="0">
-  <autoFilter ref="A1:H30" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}" name="Table3" displayName="Table3" ref="A1:I32" totalsRowShown="0">
+  <autoFilter ref="A1:I32" xr:uid="{8F42E64C-2152-564C-96EE-4D95291B043C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I8">
+    <sortCondition ref="C2:C8"/>
+    <sortCondition ref="F2:F8"/>
+  </sortState>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{49867AEE-3650-834A-A6E6-953F99CA316D}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{369912E0-B3DC-2C41-A497-7E3AD02F507F}" name="ModelPropertyCode"/>
     <tableColumn id="3" xr3:uid="{2725CB06-A002-6541-A229-B76CB55197FC}" name="ModelCode"/>
-    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{122844B9-DC66-924A-A5EF-EEAED30DEB9E}" name="PropertyName"/>
+    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="PropertyDisplayName" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{15A8045D-1C76-3D4F-8D3B-11D29FE79730}" name="DisplayOrder"/>
     <tableColumn id="7" xr3:uid="{EE317BF5-C23F-8A45-BECF-C84AF2E1F025}" name="DisplayFormatExpression"/>
     <tableColumn id="9" xr3:uid="{3D19CF32-2C08-8544-80E0-2FA4FBF0CA6B}" name="DataType"/>
@@ -608,18 +625,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -667,8 +684,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="e">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" t="e">
         <f>RIGHT("0000"&amp;SUBSTITUTE(Table1[[#This Row],[SystemVersion]],".","_"),14)</f>
         <v>#VALUE!</v>
       </c>
@@ -689,19 +706,19 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.375" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1"/>
-    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -727,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -738,7 +755,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D18" si="0">C2 &amp; "s"</f>
+        <f t="shared" ref="D2:D3" si="0">C2 &amp; "s"</f>
         <v>Clients</v>
       </c>
       <c r="E2">
@@ -754,9 +771,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -792,25 +809,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9C199-394C-7049-A96B-18089740CE91}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -820,28 +838,32 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>Client_Name</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -849,105 +871,213 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Name</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="B3" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>Client_Physical_Address</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Physical Address</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>Client_Company_Registration_Number</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Company Registration Number</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>ClientContact_First_Name</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>First Name</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="B6" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>ClientContact_Last_Name</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Last Name</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>ClientContact_Email_Address</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Email Address</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>ClientContact_Phone_Number</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Phone Number</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Table3[[#This Row],[ModelCode]]&amp;"_"&amp;Table3[[#This Row],[PropertyName]]</f>
+        <v>ClientContact_Mobile_Number</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>SUBSTITUTE(Table3[[#This Row],[PropertyName]],"_"," ")</f>
+        <v>Mobile Number</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/examples/dotnet/crmit/src/crmit.code.gen/Data/ci.code.gen_CrmIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/crmit/src/crmit.code.gen/Data/ci.code.gen_CrmIt_0001_1001_1001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/crmit/src/crmit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4187FCD-2381-5C4E-A0BB-AAB841E45551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C9453-9DEF-B84F-BDA4-FBADD004D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20F649-3214-1144-80E3-E9E5AF71D2AD}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,12 +682,6 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E3" t="e">
-        <f>RIGHT("0000"&amp;SUBSTITUTE(Table1[[#This Row],[SystemVersion]],".","_"),14)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
